--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4015.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4015.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.604177397079613</v>
+        <v>5.605527877807617</v>
       </c>
       <c r="B1">
-        <v>2.508357595330561</v>
+        <v>6.10035514831543</v>
       </c>
       <c r="C1">
-        <v>3.169211522526763</v>
+        <v>7.959798812866211</v>
       </c>
       <c r="D1">
-        <v>3.436213123391393</v>
+        <v>9.454241752624512</v>
       </c>
       <c r="E1">
-        <v>2.191802293323417</v>
+        <v>2.796086549758911</v>
       </c>
     </row>
   </sheetData>
